--- a/frontend/sellout/public/TEMPLATE VENTAS FYBECA.xlsx
+++ b/frontend/sellout/public/TEMPLATE VENTAS FYBECA.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://manufacturasame-my.sharepoint.com/personal/fjama_manamer_com/Documents/Documentos/TEMPLATE SELL OUT FYBECA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{C47296F5-71E6-488A-9603-40BF164A7B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{518EFE0E-7C7D-42C1-929C-F1B937EB217B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6778BE9-D22E-4DE6-9CF0-C28C52024D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1908" yWindow="1392" windowWidth="17280" windowHeight="8880" xr2:uid="{3A9D244A-5415-409B-BC54-9EC28B81C953}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3A9D244A-5415-409B-BC54-9EC28B81C953}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="TEMPLATE FYBECA" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,40 +25,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Stock en Unidades</t>
+  </si>
+  <si>
+    <t>Stock en Dólares</t>
+  </si>
+  <si>
+    <t>PDV</t>
+  </si>
+  <si>
+    <t>Código PDV</t>
+  </si>
+  <si>
+    <t>Código de Item</t>
+  </si>
+  <si>
+    <t>Venta en Unidades</t>
+  </si>
+  <si>
+    <t>Venta en Dólares</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
   <si>
     <t>Año</t>
-  </si>
-  <si>
-    <t>Mes</t>
-  </si>
-  <si>
-    <t>PDV</t>
-  </si>
-  <si>
-    <t>Venta en Dólares</t>
-  </si>
-  <si>
-    <t>Venta en Unidades</t>
-  </si>
-  <si>
-    <t>Código PDV</t>
-  </si>
-  <si>
-    <t>Stock en Dólares</t>
-  </si>
-  <si>
-    <t>Stock en Unidades</t>
-  </si>
-  <si>
-    <t>Código de Item</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,12 +76,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,17 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -131,9 +124,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +164,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -277,7 +270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,80 +412,73 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322AAC7B-908E-4829-AD29-8E6556827A18}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0328AFC7-21B3-4BDC-935C-3C9909F9685E}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>